--- a/资产负债表/300922.xlsx
+++ b/资产负债表/300922.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -784,66 +784,70 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-22 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>443751327.36</v>
+        <v>388395121.71</v>
       </c>
       <c r="P2" t="n">
-        <v>79856238.27</v>
+        <v>87021828.09999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>169681033.18</v>
+        <v>139974760.49</v>
       </c>
       <c r="R2" t="n">
-        <v>42.47773396</v>
+        <v>-2.7549123139</v>
       </c>
       <c r="S2" t="n">
-        <v>60127305.31</v>
+        <v>48411989.22</v>
       </c>
       <c r="T2" t="n">
-        <v>6.5871701326</v>
+        <v>90.5041797141</v>
       </c>
       <c r="U2" t="n">
-        <v>44001037.55</v>
+        <v>35137931.17</v>
       </c>
       <c r="V2" t="n">
-        <v>-8.901728237</v>
+        <v>-17.2065907378</v>
       </c>
       <c r="W2" t="n">
-        <v>36402710.09</v>
+        <v>63777399</v>
       </c>
       <c r="X2" t="n">
-        <v>25288665.1</v>
+        <v>31559983.37</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.8981669536</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>118.5227290454</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4370015.36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-58.545184113</v>
+      </c>
       <c r="AB2" t="n">
-        <v>407348617.27</v>
+        <v>324617722.71</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.8295473841</v>
+        <v>3.4470545833</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.209079593</v>
+        <v>4.1272129932</v>
       </c>
       <c r="AE2" t="n">
-        <v>-7.7486897938</v>
+        <v>7.7325365924</v>
       </c>
       <c r="AF2" t="n">
-        <v>1041.7921909089</v>
+        <v>473.609706724</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.2034030876</v>
+        <v>16.4207518156</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300922.xlsx
+++ b/资产负债表/300922.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>388395121.71</v>
+        <v>412955424.54</v>
       </c>
       <c r="P2" t="n">
-        <v>87021828.09999999</v>
+        <v>82368939.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>139974760.49</v>
+        <v>158098549.49</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.7549123139</v>
+        <v>12.9478978471</v>
       </c>
       <c r="S2" t="n">
-        <v>48411989.22</v>
+        <v>34371169.64</v>
       </c>
       <c r="T2" t="n">
-        <v>90.5041797141</v>
+        <v>-29.0027734993</v>
       </c>
       <c r="U2" t="n">
-        <v>35137931.17</v>
+        <v>37455156.32</v>
       </c>
       <c r="V2" t="n">
-        <v>-17.2065907378</v>
+        <v>6.5946544741</v>
       </c>
       <c r="W2" t="n">
-        <v>63777399</v>
+        <v>48576852.82</v>
       </c>
       <c r="X2" t="n">
-        <v>31559983.37</v>
+        <v>25378202.62</v>
       </c>
       <c r="Y2" t="n">
-        <v>118.5227290454</v>
+        <v>-19.5874017978</v>
       </c>
       <c r="Z2" t="n">
-        <v>4370015.36</v>
+        <v>5899594.94</v>
       </c>
       <c r="AA2" t="n">
-        <v>-58.545184113</v>
+        <v>35.0016980261</v>
       </c>
       <c r="AB2" t="n">
-        <v>324617722.71</v>
+        <v>364378571.72</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.4470545833</v>
+        <v>12.2485145537</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.1272129932</v>
+        <v>6.3235353528</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.7325365924</v>
+        <v>-23.8337505423</v>
       </c>
       <c r="AF2" t="n">
-        <v>473.609706724</v>
+        <v>689.5016373008</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.4207518156</v>
+        <v>11.7632194502</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300922.xlsx
+++ b/资产负债表/300922.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>412955424.54</v>
+        <v>410193440.08</v>
       </c>
       <c r="P2" t="n">
-        <v>82368939.66</v>
+        <v>80583773.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>158098549.49</v>
+        <v>176966882.19</v>
       </c>
       <c r="R2" t="n">
-        <v>12.9478978471</v>
+        <v>30.4781761532</v>
       </c>
       <c r="S2" t="n">
-        <v>34371169.64</v>
+        <v>33030334.57</v>
       </c>
       <c r="T2" t="n">
-        <v>-29.0027734993</v>
+        <v>-13.2021228327</v>
       </c>
       <c r="U2" t="n">
-        <v>37455156.32</v>
+        <v>46751824.1</v>
       </c>
       <c r="V2" t="n">
-        <v>6.5946544741</v>
+        <v>-6.6350670126</v>
       </c>
       <c r="W2" t="n">
-        <v>48576852.82</v>
+        <v>38280502.37</v>
       </c>
       <c r="X2" t="n">
-        <v>25378202.62</v>
+        <v>20025289.59</v>
       </c>
       <c r="Y2" t="n">
-        <v>-19.5874017978</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5899594.94</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>35.0016980261</v>
-      </c>
+        <v>-6.4164159927</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>364378571.72</v>
+        <v>371912937.71</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.2485145537</v>
+        <v>13.6067368189</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3235353528</v>
+        <v>8.363779900200001</v>
       </c>
       <c r="AE2" t="n">
-        <v>-23.8337505423</v>
+        <v>-25.1822166766</v>
       </c>
       <c r="AF2" t="n">
-        <v>689.5016373008</v>
+        <v>891.2122964855</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.7632194502</v>
+        <v>9.332304866299999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300922.xlsx
+++ b/资产负债表/300922.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,61 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>410193440.08</v>
+        <v>412955424.54</v>
       </c>
       <c r="P2" t="n">
-        <v>80583773.5</v>
+        <v>82368939.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>176966882.19</v>
+        <v>158098549.49</v>
       </c>
       <c r="R2" t="n">
-        <v>30.4781761532</v>
+        <v>12.9478978471</v>
       </c>
       <c r="S2" t="n">
-        <v>33030334.57</v>
+        <v>34371169.64</v>
       </c>
       <c r="T2" t="n">
-        <v>-13.2021228327</v>
+        <v>-29.0027734993</v>
       </c>
       <c r="U2" t="n">
-        <v>46751824.1</v>
+        <v>37455156.32</v>
       </c>
       <c r="V2" t="n">
-        <v>-6.6350670126</v>
+        <v>6.5946544741</v>
       </c>
       <c r="W2" t="n">
-        <v>38280502.37</v>
+        <v>48576852.82</v>
       </c>
       <c r="X2" t="n">
-        <v>20025289.59</v>
+        <v>25378202.62</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.4164159927</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>-19.5874017978</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5899594.94</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>35.0016980261</v>
+      </c>
       <c r="AB2" t="n">
-        <v>371912937.71</v>
+        <v>364378571.72</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.6067368189</v>
+        <v>12.2485145537</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.363779900200001</v>
+        <v>6.3235353528</v>
       </c>
       <c r="AE2" t="n">
-        <v>-25.1822166766</v>
+        <v>-23.8337505423</v>
       </c>
       <c r="AF2" t="n">
-        <v>891.2122964855</v>
+        <v>689.5016373008</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.332304866299999</v>
+        <v>11.7632194502</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
